--- a/git operate.xlsx
+++ b/git operate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="git基本操作" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="分支管理" sheetId="3" r:id="rId3"/>
     <sheet name="centos 创建Git服务器" sheetId="4" r:id="rId4"/>
     <sheet name=".gitignore" sheetId="5" r:id="rId5"/>
+    <sheet name="git指令" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -6600,6 +6601,174 @@
             </a:rPr>
             <a:t>目录；</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA1213A-2B49-48AD-8D54-B90CEE28C7AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="171450"/>
+          <a:ext cx="6153150" cy="6829425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git clone  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取一个远程仓库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> fetch    // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>获取远程仓库中的所有分支</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>git pull     //  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>拉取服务器内容；相当于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>git fetch + git merge</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>git push     // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>推送本地内容；</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>git tag -a v0 -m'tag for v0';       //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>本地创建一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>tag</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>git pusg --tags       // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>推送</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>tag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>到服务器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -6942,7 +7111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
@@ -6952,4 +7121,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ADC4CD-E711-46CE-863B-0B4D89289E86}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/git operate.xlsx
+++ b/git operate.xlsx
@@ -6768,6 +6768,26 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>到服务器</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>git checkout  branch// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>切换分支</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
